--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Tarefas</t>
   </si>
@@ -109,13 +109,19 @@
   </si>
   <si>
     <t>cartoes</t>
+  </si>
+  <si>
+    <t>Rever</t>
+  </si>
+  <si>
+    <t>No dia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +152,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -199,6 +218,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,8 +613,8 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,16 +642,18 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Tarefas</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>No dia</t>
+  </si>
+  <si>
+    <t>Montar Documento</t>
   </si>
 </sst>
 </file>
@@ -210,17 +213,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +617,7 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -643,16 +647,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -711,6 +715,15 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +158,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -225,6 +233,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,19 +705,21 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
+      <c r="D23" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Tarefas</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Montar Documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste </t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +730,14 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Tarefas</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>cartoes</t>
-  </si>
-  <si>
-    <t>Rever</t>
   </si>
   <si>
     <t>No dia</t>
@@ -231,13 +228,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +627,8 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,18 +656,18 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
+      <c r="D15" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,8 +687,8 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
+      <c r="D19" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,20 +705,20 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11" t="s">
-        <v>32</v>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -735,17 +732,17 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8"/>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Tarefas</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>não feito</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> não feito</t>
   </si>
   <si>
     <t>cartoes</t>
@@ -544,7 +541,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +622,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>25</v>
@@ -667,7 +664,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,8 +676,8 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,7 +708,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8"/>
       <c r="D26" s="1" t="s">

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Tarefas</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve">teste </t>
+  </si>
+  <si>
+    <t>Plano de teste</t>
+  </si>
+  <si>
+    <t>Teste  Funcional</t>
+  </si>
+  <si>
+    <t>Teste Beta</t>
+  </si>
+  <si>
+    <t>Ap6</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -232,6 +244,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,8 +712,8 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
+      <c r="D21" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,29 +735,63 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="8"/>
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,8 +730,8 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>27</v>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Tarefas</t>
   </si>
@@ -114,19 +114,19 @@
     <t>Montar Documento</t>
   </si>
   <si>
-    <t xml:space="preserve">teste </t>
-  </si>
-  <si>
     <t>Plano de teste</t>
   </si>
   <si>
-    <t>Teste  Funcional</t>
-  </si>
-  <si>
-    <t>Teste Beta</t>
-  </si>
-  <si>
     <t>Ap6</t>
+  </si>
+  <si>
+    <t>Rever</t>
+  </si>
+  <si>
+    <t>Defeitos</t>
+  </si>
+  <si>
+    <t>Homologação</t>
   </si>
 </sst>
 </file>
@@ -180,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -242,11 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +645,7 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -668,7 +674,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -700,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +718,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -730,15 +736,15 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -750,15 +756,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
@@ -766,18 +772,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +788,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="D31" s="1"/>
     </row>
   </sheetData>

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -562,7 +562,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Organização das tarefas/Tarefas.xlsx
+++ b/Organização das tarefas/Tarefas.xlsx
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +750,8 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
+      <c r="D25" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
